--- a/resources/testdata/OrderTestCases.xlsx
+++ b/resources/testdata/OrderTestCases.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="testPlaceOrder" sheetId="2" r:id="rId2"/>
+    <sheet name="testPlaceOrderWithItems" sheetId="3" r:id="rId2"/>
+    <sheet name="testPlaceOrder" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>TCID</t>
   </si>
@@ -66,6 +67,9 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>testPlaceOrderWithItems</t>
   </si>
 </sst>
 </file>
@@ -414,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,6 +453,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -459,7 +471,62 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>10006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/testdata/OrderTestCases.xlsx
+++ b/resources/testdata/OrderTestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>TCID</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>testPlaceOrderWithItems</t>
+  </si>
+  <si>
+    <t>itemDetails</t>
+  </si>
+  <si>
+    <t>{"ItemList":[{"itemName":"Annual Provisionable Item","operation":"False","textbox":"False","dropdown":"False","checkbox":"False","value":"0"},{"itemName":"Camera Megapixel","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"8"},{"itemName":"Extended Warranty","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"6"},{"itemName":"External Memory Card","operation":"True","textbox":"False","dropdown":"True","checkbox":"False","value":"3"},{"itemName":"Ram PPU","operation":"False","textbox":"True","dropdown":"False","checkbox":"False","value":"0"},{"itemName":"Ram Reserved","operation":"False","textbox":"False","dropdown":"False","checkbox":"True","value":"0"}]}</t>
+  </si>
+  <si>
+    <t>provInfoDetails</t>
+  </si>
+  <si>
+    <t>{"ProvInfoLst":[{"provInfoName":"UserName","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"pratap@domain.com"},{"provInfoName":"Email","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"pratap@domain.com"},{"provInfoName":"Confirm  Email","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"pratap@domain.com"},{"provInfoName":"Handset Color","operation":"True","textbox":"False","dropdown":"True","checkbox":"False","value":"Red"},{"provInfoName":"HeadsetLength","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"35cm"},{"provInfoName":"HandsetModelNumber *","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"Ensim35k"},{"provInfoName":"Phone Password","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"Ensim35k"},{"provInfoName":"Confirm  Phone Password","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"Ensim35k"},{"provInfoName":"Handset Integer","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"123456"},{"provInfoName":"Will you recommend","operation":"True","textbox":"False","dropdown":"False","checkbox":"True","value":"123456"},{"provInfoName":"Default Language","operation":"True","textbox":"False","dropdown":"True","checkbox":"False","value":"English (US)"},{"provInfoName":"Handset Domain","operation":"True","textbox":"False","dropdown":"True","checkbox":"False","value":"customerbct.com"},{"provInfoName":"Purchase Order Number","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"123-8978-67897"},{"provInfoName":"Custom Field1 *","operation":"True","textbox":"True","dropdown":"False","checkbox":"False","value":"xyz"}]}</t>
   </si>
 </sst>
 </file>
@@ -468,15 +480,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -495,8 +507,14 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -514,6 +532,12 @@
       </c>
       <c r="F2">
         <v>10006</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +550,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
